--- a/settings/data/Enemy.xlsx
+++ b/settings/data/Enemy.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DE339B-5E60-41C0-92F7-2C568DFA2A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Enemy" sheetId="1" r:id="rId1"/>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
   <si>
     <t>string</t>
   </si>
@@ -51,6 +45,30 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">类型
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zako.杂鱼；
+elite.精英；</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">移动方式
 </t>
     </r>
@@ -59,7 +77,6 @@
         <sz val="10"/>
         <color theme="9"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -70,7 +87,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -82,7 +98,6 @@
         <sz val="10"/>
         <color theme="4"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -97,7 +112,6 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -109,7 +123,6 @@
         <sz val="10"/>
         <color theme="9"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -137,7 +150,6 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -149,7 +161,6 @@
         <sz val="10"/>
         <color theme="9"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -157,31 +168,61 @@
     </r>
   </si>
   <si>
-    <t>Id</t>
+    <t>id</t>
   </si>
   <si>
     <t>*</t>
   </si>
   <si>
-    <t>Movement</t>
-  </si>
-  <si>
-    <t>Barrage_Parameter</t>
-  </si>
-  <si>
-    <t>Shoot_Interval</t>
-  </si>
-  <si>
-    <t>Physical_Damage</t>
-  </si>
-  <si>
-    <t>Magical_Damage</t>
-  </si>
-  <si>
-    <t>Health</t>
-  </si>
-  <si>
-    <t>Speed</t>
+    <t>type</t>
+  </si>
+  <si>
+    <t>movement</t>
+  </si>
+  <si>
+    <t>danma</t>
+  </si>
+  <si>
+    <t>barrage_parameter</t>
+  </si>
+  <si>
+    <t>shoot_interval</t>
+  </si>
+  <si>
+    <t>physical_damage</t>
+  </si>
+  <si>
+    <t>magical_damage</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>enm_memhappy</t>
+  </si>
+  <si>
+    <t>记忆幻影-快乐</t>
+  </si>
+  <si>
+    <t>zako</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>enm_memsad</t>
+  </si>
+  <si>
+    <t>记忆幻影-悲伤</t>
+  </si>
+  <si>
+    <t>enm_mempeace</t>
+  </si>
+  <si>
+    <t>记忆幻影-平淡</t>
   </si>
   <si>
     <t>enm_kedama</t>
@@ -190,22 +231,71 @@
     <t>毛玉</t>
   </si>
   <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>danma</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>creep</t>
+  </si>
+  <si>
+    <t>enm_yuurei</t>
+  </si>
+  <si>
+    <t>幽灵</t>
+  </si>
+  <si>
+    <t>enm_onibi</t>
+  </si>
+  <si>
+    <t>鬼火</t>
+  </si>
+  <si>
+    <t>enm_book</t>
+  </si>
+  <si>
+    <t>书</t>
+  </si>
+  <si>
+    <t>enm_boy</t>
+  </si>
+  <si>
+    <t>男孩的记忆</t>
+  </si>
+  <si>
+    <t>enm_girl</t>
+  </si>
+  <si>
+    <t>女孩的记忆</t>
+  </si>
+  <si>
+    <t>enm_memcolorful</t>
+  </si>
+  <si>
+    <t>记忆幻影-多彩</t>
+  </si>
+  <si>
+    <t>elite</t>
+  </si>
+  <si>
+    <t>enm_eltkedama</t>
+  </si>
+  <si>
+    <t>精英毛玉</t>
+  </si>
+  <si>
+    <t>enm_teacher</t>
+  </si>
+  <si>
+    <t>教师的记忆</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,7 +307,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -225,7 +314,157 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -233,7 +472,6 @@
       <sz val="10"/>
       <color theme="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -241,27 +479,11 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="4"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,12 +492,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="0" tint="-0.0499893185216834"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -298,9 +706,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -330,17 +980,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -590,35 +1284,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" customWidth="1"/>
-    <col min="3" max="3" width="32.44140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" style="3" customWidth="1"/>
-    <col min="6" max="8" width="20.5546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="14" style="3" customWidth="1"/>
-    <col min="10" max="10" width="13.77734375" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="20.1818181818182" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.2727272727273" customWidth="1"/>
+    <col min="3" max="3" width="11.9090909090909" style="3" customWidth="1"/>
+    <col min="4" max="4" width="32.4454545454545" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.3363636363636" style="3" customWidth="1"/>
+    <col min="6" max="6" width="21.3363636363636" style="3" customWidth="1"/>
+    <col min="7" max="9" width="20.5545454545455" style="3" customWidth="1"/>
+    <col min="10" max="10" width="14" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13.7818181818182" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -626,16 +1322,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>2</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>2</v>
@@ -649,8 +1345,11 @@
       <c r="J1" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="K1" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="116.4" x14ac:dyDescent="0.25">
+    <row r="2" s="2" customFormat="1" ht="112" spans="1:11">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -663,7 +1362,7 @@
       <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -678,70 +1377,365 @@
       <c r="I2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="K2" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" s="1" customFormat="1" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>21</v>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="3">
+        <v>5</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>100</v>
+      </c>
+      <c r="K4" s="3">
+        <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="3">
+    <row r="5" spans="1:11">
+      <c r="A5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="3">
+        <v>5</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>100</v>
+      </c>
+      <c r="K5" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="3">
+        <v>5</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>100</v>
+      </c>
+      <c r="K6" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="3">
+        <v>5</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>100</v>
+      </c>
+      <c r="K7" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="3">
+        <v>5</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>100</v>
+      </c>
+      <c r="K8" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="3">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>100</v>
+      </c>
+      <c r="K9" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="3">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>100</v>
+      </c>
+      <c r="K10" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="3">
+        <v>5</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>100</v>
+      </c>
+      <c r="K11" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="3">
+        <v>5</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>100</v>
+      </c>
+      <c r="K12" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="3">
         <v>10</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I13" s="3">
         <v>0</v>
       </c>
-      <c r="I4" s="3">
-        <v>100</v>
-      </c>
-      <c r="J4" s="3">
+      <c r="J13" s="3">
+        <v>500</v>
+      </c>
+      <c r="K13" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="3">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>500</v>
+      </c>
+      <c r="K14" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="3">
+        <v>12</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>750</v>
+      </c>
+      <c r="K15" s="3">
         <v>50</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/settings/data/Enemy.xlsx
+++ b/settings/data/Enemy.xlsx
@@ -45,6 +45,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">类型
 </t>
     </r>
@@ -463,13 +470,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="4"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -478,6 +478,13 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>

--- a/settings/data/Enemy.xlsx
+++ b/settings/data/Enemy.xlsx
@@ -1304,7 +1304,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="3">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="K4" s="3">
         <v>50</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="3">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="K5" s="3">
         <v>50</v>
@@ -1498,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="3">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="K6" s="3">
         <v>50</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="3">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="K7" s="3">
         <v>50</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="K8" s="3">
         <v>50</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="K9" s="3">
         <v>50</v>
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="K10" s="3">
         <v>50</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="3">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="K11" s="3">
         <v>50</v>
@@ -1656,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="3">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="K12" s="3">
         <v>50</v>

--- a/settings/data/Enemy.xlsx
+++ b/settings/data/Enemy.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectFiles\LOO\3.16\sclone\settings\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F5EF5D-A7C0-48D6-BBC6-4DFA9CE39CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enemy" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -49,6 +53,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -60,6 +65,7 @@
         <sz val="10"/>
         <color theme="4"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -73,6 +79,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -84,6 +91,7 @@
         <sz val="10"/>
         <color theme="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -94,6 +102,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -105,6 +114,7 @@
         <sz val="10"/>
         <color theme="4"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -119,6 +129,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -130,6 +141,7 @@
         <sz val="10"/>
         <color theme="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -157,6 +169,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -168,6 +181,7 @@
         <sz val="10"/>
         <color theme="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -295,14 +309,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,6 +322,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -321,157 +330,15 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -479,6 +346,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -486,11 +354,19 @@
       <sz val="10"/>
       <color theme="4"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -499,198 +375,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.0499893185216834"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -713,251 +403,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -987,61 +435,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1291,37 +695,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.1818181818182" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.2727272727273" customWidth="1"/>
-    <col min="3" max="3" width="11.9090909090909" style="3" customWidth="1"/>
-    <col min="4" max="4" width="32.4454545454545" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.3363636363636" style="3" customWidth="1"/>
-    <col min="6" max="6" width="21.3363636363636" style="3" customWidth="1"/>
-    <col min="7" max="9" width="20.5545454545455" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.1796875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="11.90625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="32.453125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.36328125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="21.36328125" style="3" customWidth="1"/>
+    <col min="7" max="9" width="20.54296875" style="3" customWidth="1"/>
     <col min="10" max="10" width="14" style="3" customWidth="1"/>
-    <col min="11" max="11" width="13.7818181818182" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13.81640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1356,7 +759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="112" spans="1:11">
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="112" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1391,7 +794,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:11">
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1426,7 +829,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -1446,13 +849,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="3">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K4" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
@@ -1472,13 +875,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="3">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K5" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>31</v>
       </c>
@@ -1498,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="3">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K6" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -1526,13 +929,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="3">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K7" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>36</v>
       </c>
@@ -1552,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K8" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>38</v>
       </c>
@@ -1578,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K9" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>40</v>
       </c>
@@ -1604,13 +1007,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K10" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>42</v>
       </c>
@@ -1630,13 +1033,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="3">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K11" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>44</v>
       </c>
@@ -1656,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="3">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K12" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>46</v>
       </c>
@@ -1682,13 +1085,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="3">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K13" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>49</v>
       </c>
@@ -1708,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K14" s="3">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>51</v>
       </c>
@@ -1734,15 +1137,15 @@
         <v>0</v>
       </c>
       <c r="J15" s="3">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="K15" s="3">
         <v>50</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/settings/data/Enemy.xlsx
+++ b/settings/data/Enemy.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectFiles\LOO\3.16\sclone\settings\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F5EF5D-A7C0-48D6-BBC6-4DFA9CE39CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Enemy" sheetId="1" r:id="rId1"/>
@@ -24,6 +18,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -53,7 +49,6 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -65,7 +60,6 @@
         <sz val="10"/>
         <color theme="4"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -79,7 +73,6 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -91,7 +84,6 @@
         <sz val="10"/>
         <color theme="9"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -102,7 +94,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -114,7 +105,6 @@
         <sz val="10"/>
         <color theme="4"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -129,7 +119,6 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -141,7 +130,6 @@
         <sz val="10"/>
         <color theme="9"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -169,7 +157,6 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -181,7 +168,6 @@
         <sz val="10"/>
         <color theme="9"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -309,8 +295,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,7 +314,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -330,15 +321,164 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="9"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -346,27 +486,11 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="4"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -375,12 +499,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="0" tint="-0.0499893185216834"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -403,9 +713,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -435,17 +987,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -695,36 +1291,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.1796875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="11.90625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="32.453125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.36328125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="21.36328125" style="3" customWidth="1"/>
-    <col min="7" max="9" width="20.54296875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.1818181818182" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.2727272727273" customWidth="1"/>
+    <col min="3" max="3" width="11.9090909090909" style="3" customWidth="1"/>
+    <col min="4" max="4" width="32.4545454545455" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.3636363636364" style="3" customWidth="1"/>
+    <col min="6" max="6" width="21.3636363636364" style="3" customWidth="1"/>
+    <col min="7" max="9" width="20.5454545454545" style="3" customWidth="1"/>
     <col min="10" max="10" width="14" style="3" customWidth="1"/>
-    <col min="11" max="11" width="13.81640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13.8181818181818" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -759,7 +1356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="112" x14ac:dyDescent="0.25">
+    <row r="2" s="2" customFormat="1" ht="112" spans="1:11">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -794,7 +1391,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" s="1" customFormat="1" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -829,7 +1426,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -855,7 +1452,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
@@ -881,7 +1478,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
         <v>31</v>
       </c>
@@ -907,7 +1504,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -932,10 +1529,10 @@
         <v>30</v>
       </c>
       <c r="K7" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="3" t="s">
         <v>36</v>
       </c>
@@ -961,7 +1558,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="3" t="s">
         <v>38</v>
       </c>
@@ -987,7 +1584,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="3" t="s">
         <v>40</v>
       </c>
@@ -1013,7 +1610,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="3" t="s">
         <v>42</v>
       </c>
@@ -1039,7 +1636,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="3" t="s">
         <v>44</v>
       </c>
@@ -1065,7 +1662,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="3" t="s">
         <v>46</v>
       </c>
@@ -1091,7 +1688,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="3" t="s">
         <v>49</v>
       </c>
@@ -1114,10 +1711,10 @@
         <v>1000</v>
       </c>
       <c r="K14" s="3">
-        <v>75</v>
+        <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="3" t="s">
         <v>51</v>
       </c>
@@ -1144,8 +1741,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/settings/data/Enemy.xlsx
+++ b/settings/data/Enemy.xlsx
@@ -477,14 +477,14 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="4"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1304,7 +1304,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1440,7 +1440,7 @@
         <v>28</v>
       </c>
       <c r="H4" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I4" s="3">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>28</v>
       </c>
       <c r="H5" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I5" s="3">
         <v>0</v>
@@ -1492,7 +1492,7 @@
         <v>28</v>
       </c>
       <c r="H6" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I6" s="3">
         <v>0</v>
@@ -1520,7 +1520,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>28</v>
       </c>
       <c r="H8" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>28</v>
       </c>
       <c r="H9" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>28</v>
       </c>
       <c r="H10" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>28</v>
       </c>
       <c r="H11" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I11" s="3">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>28</v>
       </c>
       <c r="H12" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
@@ -1676,13 +1676,13 @@
         <v>28</v>
       </c>
       <c r="H13" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I13" s="3">
         <v>0</v>
       </c>
       <c r="J13" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K13" s="3">
         <v>30</v>
@@ -1702,13 +1702,13 @@
         <v>35</v>
       </c>
       <c r="H14" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K14" s="3">
         <v>150</v>
@@ -1728,13 +1728,13 @@
         <v>28</v>
       </c>
       <c r="H15" s="3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
       </c>
       <c r="J15" s="3">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="K15" s="3">
         <v>50</v>

--- a/settings/data/Enemy.xlsx
+++ b/settings/data/Enemy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071A78D9-9516-44B5-AE83-C09E1C9E6FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770390D5-1A1D-4A05-9576-C1840C3450FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,6 +509,11 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>dcrt_keine_ns1_1</v>
+          </cell>
+        </row>
         <row r="5">
           <cell r="A5" t="str">
             <v>dcrt_keine_ns1_2</v>
@@ -522,6 +527,11 @@
         <row r="9">
           <cell r="A9" t="str">
             <v>dcrt_keine_sc1_3</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>dcrt_keine_sc1_4</v>
           </cell>
         </row>
       </sheetData>
@@ -786,7 +796,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomRight" activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1225,7 +1235,7 @@
         <v>30</v>
       </c>
       <c r="H16" s="3">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="I16" s="3">
         <v>0</v>
@@ -1255,7 +1265,7 @@
         <v>30</v>
       </c>
       <c r="H17" s="3">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="I17" s="3">
         <v>0</v>
@@ -1285,7 +1295,7 @@
         <v>30</v>
       </c>
       <c r="H18" s="3">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="I18" s="3">
         <v>0</v>
@@ -1305,8 +1315,8 @@
         <v>49</v>
       </c>
       <c r="E19" s="3" t="str">
-        <f>[1]d4c!$A$9</f>
-        <v>dcrt_keine_sc1_3</v>
+        <f>[1]d4c!$A$10</f>
+        <v>dcrt_keine_sc1_4</v>
       </c>
       <c r="F19" s="3">
         <v>5</v>
@@ -1315,7 +1325,7 @@
         <v>30</v>
       </c>
       <c r="H19" s="3">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="I19" s="3">
         <v>0</v>

--- a/settings/data/Enemy.xlsx
+++ b/settings/data/Enemy.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770390D5-1A1D-4A05-9576-C1840C3450FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Enemy" sheetId="1" r:id="rId1"/>
@@ -36,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
   <si>
     <t>string</t>
   </si>
@@ -55,7 +49,6 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -67,7 +60,6 @@
         <sz val="10"/>
         <color theme="4"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -81,7 +73,6 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -93,7 +84,6 @@
         <sz val="10"/>
         <color theme="9"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -104,7 +94,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -116,7 +105,6 @@
         <sz val="10"/>
         <color theme="4"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -132,7 +120,6 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -144,7 +131,6 @@
         <sz val="10"/>
         <color theme="9"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -166,7 +152,6 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -178,7 +163,6 @@
         <sz val="10"/>
         <color theme="9"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -297,6 +281,9 @@
     <t>教师的记忆</t>
   </si>
   <si>
+    <t>enm_keine_ns1_1</t>
+  </si>
+  <si>
     <t>慧音一非使魔1</t>
   </si>
   <si>
@@ -309,31 +296,35 @@
     <t>慧音一非使魔2</t>
   </si>
   <si>
-    <t>enm_keine_ns1_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>enm_keine_sc1_1</t>
   </si>
   <si>
     <t>慧音一符使魔1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>enm_keine_sc1_2</t>
   </si>
   <si>
     <t>慧音一符使魔2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>enm_keine_sc1_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>enm_keine_sc1_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>enm_keine_sc2</t>
+  </si>
+  <si>
+    <t>慧音二符战船</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,7 +336,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -353,23 +343,171 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="9"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -377,51 +515,205 @@
       <sz val="10"/>
       <color theme="4"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -444,13 +736,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -472,48 +1006,78 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="d4c"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>dcrt_keine_ns1_1</v>
-          </cell>
-        </row>
         <row r="5">
           <cell r="A5" t="str">
             <v>dcrt_keine_ns1_2</v>
@@ -784,35 +1348,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H33" sqref="H33"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.25" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.25" customWidth="1"/>
-    <col min="3" max="3" width="11.875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.2545454545455" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.2545454545455" customWidth="1"/>
+    <col min="3" max="3" width="11.8727272727273" style="3" customWidth="1"/>
     <col min="4" max="4" width="32.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.8727272727273" style="3" customWidth="1"/>
     <col min="6" max="7" width="20.5" style="3" customWidth="1"/>
     <col min="8" max="8" width="14" style="3" customWidth="1"/>
-    <col min="9" max="9" width="13.75" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.7545454545455" style="3" customWidth="1"/>
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -841,7 +1406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="116.25" x14ac:dyDescent="0.15">
+    <row r="2" s="2" customFormat="1" ht="125" spans="1:9">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -870,7 +1435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" s="1" customFormat="1" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -889,7 +1454,7 @@
       <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -899,7 +1464,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -925,7 +1490,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
@@ -951,7 +1516,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -977,7 +1542,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
@@ -1003,7 +1568,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
@@ -1029,7 +1594,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
@@ -1055,7 +1620,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
         <v>35</v>
       </c>
@@ -1081,7 +1646,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
         <v>37</v>
       </c>
@@ -1107,7 +1672,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" s="3" t="s">
         <v>39</v>
       </c>
@@ -1133,7 +1698,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
         <v>41</v>
       </c>
@@ -1159,7 +1724,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
         <v>44</v>
       </c>
@@ -1185,7 +1750,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" s="3" t="s">
         <v>46</v>
       </c>
@@ -1211,18 +1776,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="8" t="s">
-        <v>52</v>
+    <row r="16" spans="1:9">
+      <c r="A16" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16" s="3" t="str">
         <f>[1]d4c!$A$5</f>
@@ -1241,18 +1806,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E17" s="3" t="str">
         <f>[1]d4c!$A$6</f>
@@ -1271,18 +1836,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="A18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="9" t="s">
         <v>53</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E18" s="3" t="str">
         <f>[1]d4c!$A$9</f>
@@ -1301,18 +1866,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>54</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E19" s="3" t="str">
         <f>[1]d4c!$A$10</f>
@@ -1331,9 +1896,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="3">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/settings/data/Enemy.xlsx
+++ b/settings/data/Enemy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="24750" windowHeight="11630"/>
   </bookViews>
   <sheets>
     <sheet name="Enemy" sheetId="1" r:id="rId1"/>
@@ -324,7 +324,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,13 +341,6 @@
     </font>
     <font>
       <sz val="16"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -499,6 +492,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="4"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -507,13 +507,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="4"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -854,133 +847,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1006,7 +999,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1361,7 +1354,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/settings/data/Enemy.xlsx
+++ b/settings/data/Enemy.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectFiles\LOO\touhou_LOO-master\touhou_LOO-master\settings\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60001E72-3055-4944-9CDE-B151ADAD6B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="11630"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enemy" sheetId="1" r:id="rId1"/>
@@ -21,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -49,6 +53,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -60,6 +65,7 @@
         <sz val="10"/>
         <color theme="4"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -73,6 +79,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -84,6 +91,7 @@
         <sz val="10"/>
         <color theme="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -94,6 +102,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -105,6 +114,7 @@
         <sz val="10"/>
         <color theme="4"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -120,6 +130,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -131,6 +142,7 @@
         <sz val="10"/>
         <color theme="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -152,6 +164,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -163,6 +176,7 @@
         <sz val="10"/>
         <color theme="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -317,14 +331,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,6 +344,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -343,157 +352,15 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="4"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -501,6 +368,7 @@
       <sz val="10"/>
       <color theme="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -508,205 +376,27 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -729,255 +419,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -999,72 +447,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="d4c"/>
@@ -1341,36 +742,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.2545454545455" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.2545454545455" customWidth="1"/>
-    <col min="3" max="3" width="11.8727272727273" style="3" customWidth="1"/>
-    <col min="4" max="4" width="32.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19.8727272727273" style="3" customWidth="1"/>
-    <col min="6" max="7" width="20.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.26953125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="11.90625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="32.453125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.90625" style="3" customWidth="1"/>
+    <col min="6" max="7" width="20.453125" style="3" customWidth="1"/>
     <col min="8" max="8" width="14" style="3" customWidth="1"/>
-    <col min="9" max="9" width="13.7545454545455" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="3" customWidth="1"/>
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1399,7 +799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="125" spans="1:9">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="125" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1428,7 +828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:9">
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1457,7 +857,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -1480,10 +880,10 @@
         <v>30</v>
       </c>
       <c r="I4" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
@@ -1497,7 +897,7 @@
         <v>23</v>
       </c>
       <c r="F5" s="3">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
@@ -1509,7 +909,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -1529,13 +929,13 @@
         <v>0</v>
       </c>
       <c r="H6" s="3">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I6" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
@@ -1558,10 +958,10 @@
         <v>30</v>
       </c>
       <c r="I7" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
@@ -1584,10 +984,10 @@
         <v>30</v>
       </c>
       <c r="I8" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
@@ -1610,10 +1010,10 @@
         <v>30</v>
       </c>
       <c r="I9" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>35</v>
       </c>
@@ -1636,10 +1036,10 @@
         <v>30</v>
       </c>
       <c r="I10" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>37</v>
       </c>
@@ -1662,10 +1062,10 @@
         <v>30</v>
       </c>
       <c r="I11" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>39</v>
       </c>
@@ -1688,10 +1088,10 @@
         <v>30</v>
       </c>
       <c r="I12" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>41</v>
       </c>
@@ -1714,10 +1114,10 @@
         <v>1000</v>
       </c>
       <c r="I13" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>44</v>
       </c>
@@ -1740,10 +1140,10 @@
         <v>1000</v>
       </c>
       <c r="I14" s="3">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>46</v>
       </c>
@@ -1766,10 +1166,10 @@
         <v>1500</v>
       </c>
       <c r="I15" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>48</v>
       </c>
@@ -1799,7 +1199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>51</v>
       </c>
@@ -1829,11 +1229,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" t="s">
         <v>54</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -1859,11 +1259,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" t="s">
         <v>56</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -1889,7 +1289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>57</v>
       </c>
@@ -1916,8 +1316,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/settings/data/Enemy.xlsx
+++ b/settings/data/Enemy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectFiles\LOO\touhou_LOO-master\touhou_LOO-master\settings\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60001E72-3055-4944-9CDE-B151ADAD6B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EC1054-7AC8-4670-A3BD-C28A8357412C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -754,7 +754,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,7 +871,7 @@
         <v>23</v>
       </c>
       <c r="F4" s="3">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -897,7 +897,7 @@
         <v>23</v>
       </c>
       <c r="F5" s="3">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>23</v>
       </c>
       <c r="F6" s="3">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>30</v>
       </c>
       <c r="F7" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>30</v>
       </c>
       <c r="I7" s="3">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -975,7 +975,7 @@
         <v>23</v>
       </c>
       <c r="F8" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>23</v>
       </c>
       <c r="F9" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -1027,7 +1027,7 @@
         <v>23</v>
       </c>
       <c r="F10" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>23</v>
       </c>
       <c r="F11" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G11" s="3">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>23</v>
       </c>
       <c r="F12" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -1140,7 +1140,7 @@
         <v>1000</v>
       </c>
       <c r="I14" s="3">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">

--- a/settings/data/Enemy.xlsx
+++ b/settings/data/Enemy.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectFiles\LOO\touhou_LOO-master\touhou_LOO-master\settings\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EC1054-7AC8-4670-A3BD-C28A8357412C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="11630"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enemy" sheetId="1" r:id="rId1"/>
@@ -21,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -49,6 +53,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -60,6 +65,7 @@
         <sz val="10"/>
         <color theme="4"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -73,6 +79,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -84,6 +91,7 @@
         <sz val="10"/>
         <color theme="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -94,6 +102,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -105,6 +114,7 @@
         <sz val="10"/>
         <color theme="4"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -120,6 +130,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -131,6 +142,7 @@
         <sz val="10"/>
         <color theme="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -152,6 +164,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -163,6 +176,7 @@
         <sz val="10"/>
         <color theme="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -317,14 +331,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,6 +344,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -343,157 +352,15 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="4"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -501,6 +368,7 @@
       <sz val="10"/>
       <color theme="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -508,205 +376,27 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -729,255 +419,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -999,72 +447,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="d4c"/>
@@ -1341,36 +742,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.2545454545455" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.2545454545455" customWidth="1"/>
-    <col min="3" max="3" width="11.8727272727273" style="3" customWidth="1"/>
-    <col min="4" max="4" width="32.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19.8727272727273" style="3" customWidth="1"/>
-    <col min="6" max="7" width="20.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.26953125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="11.90625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="32.453125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.90625" style="3" customWidth="1"/>
+    <col min="6" max="7" width="20.453125" style="3" customWidth="1"/>
     <col min="8" max="8" width="14" style="3" customWidth="1"/>
-    <col min="9" max="9" width="13.7545454545455" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="3" customWidth="1"/>
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1399,7 +799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="125" spans="1:9">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="125" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1428,7 +828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:9">
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1457,7 +857,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -1471,7 +871,7 @@
         <v>23</v>
       </c>
       <c r="F4" s="3">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -1480,10 +880,10 @@
         <v>30</v>
       </c>
       <c r="I4" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
@@ -1509,7 +909,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -1523,19 +923,19 @@
         <v>23</v>
       </c>
       <c r="F6" s="3">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
       </c>
       <c r="H6" s="3">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I6" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
@@ -1549,7 +949,7 @@
         <v>30</v>
       </c>
       <c r="F7" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
@@ -1558,10 +958,10 @@
         <v>30</v>
       </c>
       <c r="I7" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
@@ -1575,7 +975,7 @@
         <v>23</v>
       </c>
       <c r="F8" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -1584,10 +984,10 @@
         <v>30</v>
       </c>
       <c r="I8" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
@@ -1601,7 +1001,7 @@
         <v>23</v>
       </c>
       <c r="F9" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -1610,10 +1010,10 @@
         <v>30</v>
       </c>
       <c r="I9" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>35</v>
       </c>
@@ -1627,7 +1027,7 @@
         <v>23</v>
       </c>
       <c r="F10" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -1636,10 +1036,10 @@
         <v>30</v>
       </c>
       <c r="I10" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>37</v>
       </c>
@@ -1653,7 +1053,7 @@
         <v>23</v>
       </c>
       <c r="F11" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G11" s="3">
         <v>0</v>
@@ -1662,10 +1062,10 @@
         <v>30</v>
       </c>
       <c r="I11" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>39</v>
       </c>
@@ -1679,7 +1079,7 @@
         <v>23</v>
       </c>
       <c r="F12" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -1688,10 +1088,10 @@
         <v>30</v>
       </c>
       <c r="I12" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>41</v>
       </c>
@@ -1714,10 +1114,10 @@
         <v>1000</v>
       </c>
       <c r="I13" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>44</v>
       </c>
@@ -1740,10 +1140,10 @@
         <v>1000</v>
       </c>
       <c r="I14" s="3">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>46</v>
       </c>
@@ -1766,10 +1166,10 @@
         <v>1500</v>
       </c>
       <c r="I15" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>48</v>
       </c>
@@ -1799,7 +1199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>51</v>
       </c>
@@ -1829,11 +1229,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" t="s">
         <v>54</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -1859,11 +1259,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" t="s">
         <v>56</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -1889,7 +1289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>57</v>
       </c>
@@ -1916,8 +1316,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>